--- a/exposan/biogenic_refinery/results/sysB_Senegal.xlsx
+++ b/exposan/biogenic_refinery/results/sysB_Senegal.xlsx
@@ -26312,7 +26312,7 @@
         <v>72.52000000000002</v>
       </c>
       <c r="E5">
-        <v>13.32168306088673</v>
+        <v>13.32168306088674</v>
       </c>
       <c r="F5">
         <v>-5.52024705494346</v>
